--- a/Table_Source/Company_Table.xlsx
+++ b/Table_Source/Company_Table.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R101100\Desktop\Git_Practice\0.SQL_for_DataScience\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R101100\Desktop\Git_Practice\0.SQL_for_DataScience\Table_Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8340"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
